--- a/input/raw_data/data_extraction/data_extraction_start.xlsx
+++ b/input/raw_data/data_extraction/data_extraction_start.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{398806A7-865C-3B45-8AFF-2DA55B2BB07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A4AFB-4E4B-7241-B550-57D5ADD9FF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="13080" windowWidth="20580" windowHeight="12240" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
+    <workbookView xWindow="20420" yWindow="17620" windowWidth="20580" windowHeight="12240" xr2:uid="{A46F0182-2702-C049-8D59-35AAB89CA329}"/>
   </bookViews>
   <sheets>
     <sheet name="data_extraction_start" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="244">
   <si>
     <t>Study_ID</t>
   </si>
@@ -85,18 +99,9 @@
     <t>Foreign-Body Ingestion In Patients With Personality Disorders</t>
   </si>
   <si>
-    <t>Management Of Foreign Bodies In The Rectum</t>
-  </si>
-  <si>
     <t>An Unusual Case Of A Swallowed Thermometer Perforated In The Mediastinum</t>
   </si>
   <si>
-    <t>The Role Of Emergency Endoscopy In Upper Git Foreign Body Extraction</t>
-  </si>
-  <si>
-    <t>Management Of Ingested Foreign Bodies. How Justifiable Is A Waiting Policy?</t>
-  </si>
-  <si>
     <t>Foreign-Body Ingestion: Characteristics And Outcomes In A Lower Socioeconomic Population With Predominantly Intentional Ingestion</t>
   </si>
   <si>
@@ -112,9 +117,6 @@
     <t>Hard To Swallow: A Systematic Review Of Deliberate Foreign Body Ingestion</t>
   </si>
   <si>
-    <t>Foreign Bodies In The Rectum: An Analysis Of 30 Patients</t>
-  </si>
-  <si>
     <t>Successful Endoscopic Removal Of A Lighter Swallowed 17 Months Before</t>
   </si>
   <si>
@@ -130,15 +132,6 @@
     <t>Radiologic Findings In Cases Of Attempted Suicide And Other Self-Injurious Behavior</t>
   </si>
   <si>
-    <t>Foreign Object Ingestion In Complex Suicide: A Case Report And Review Of The Literature</t>
-  </si>
-  <si>
-    <t>Ingestion Of Foreign Objects As A Means Of Nonlethal Self-Injury</t>
-  </si>
-  <si>
-    <t>Long-Term And Bizarre Self-Injurious Behavior: An Approach To Underlying Psychological Mechanisms And Management</t>
-  </si>
-  <si>
     <t>Intentional Foreign Object Ingestions: Need For Endoscopy And¬†Surgery</t>
   </si>
   <si>
@@ -157,12 +150,6 @@
     <t>A Deliberately Swallowed Foreign Body: Money Package</t>
   </si>
   <si>
-    <t>Nonsuicidal Self-Injury-Related Foreign Bodies In The Emergency Department</t>
-  </si>
-  <si>
-    <t>A Game Theoretic Approach To Repeated Foreign Body Ingestion</t>
-  </si>
-  <si>
     <t>Ingested Cylindrical Batteries In An Incarcerated Male: A Caustic Tale!</t>
   </si>
   <si>
@@ -184,15 +171,9 @@
     <t>Analysis Of Inedible Substance Ingestion At A Japanese Psychiatric Hospital</t>
   </si>
   <si>
-    <t>Ingestion Of Nine Metallic Nails With Corrosive: What Happened Next?</t>
-  </si>
-  <si>
     <t>Ingestion Of Foreign Bodies Among Prisoners: A Ten Years Retrospective Study At University Hospital Of Southern Italy</t>
   </si>
   <si>
-    <t>Oesophageal Coins Invisible On Chest Radiography: A Case Report</t>
-  </si>
-  <si>
     <t>Recurrent Gastric Metal Bezoar: A Rare Cause Of Gastric Outlet Obstruction</t>
   </si>
   <si>
@@ -214,9 +195,6 @@
     <t>Prevalence Of Deliberate Self-Harm Among Chinese Patients With Heroin Dependence: A Meta-Analysis</t>
   </si>
   <si>
-    <t>Atypical And Severe Nonsuicidal Self-Injury As An Indicator Of Severe Psychopathology: Findings From A Sample Of High-Risk Community Mental Health Clients</t>
-  </si>
-  <si>
     <t>Ingested Razor Blades Within The Appendix: A Rare Case Report</t>
   </si>
   <si>
@@ -229,9 +207,6 @@
     <t>Intentional Foreign Body Ingestion</t>
   </si>
   <si>
-    <t>A Man With Nails And Needles Inside: A Case Report Of Factitious Disorder</t>
-  </si>
-  <si>
     <t>Digital Tomosynthesis For Detection Of Ingested Foreign Objects In The Emergency Department: A Case Of Razor Blade Ingestion</t>
   </si>
   <si>
@@ -503,6 +478,294 @@
   </si>
   <si>
     <t>10.4314/wajm.v25i3.28286</t>
+  </si>
+  <si>
+    <t>Hunt, I.</t>
+  </si>
+  <si>
+    <t>London, UK</t>
+  </si>
+  <si>
+    <t>Cardiothoracic Centre</t>
+  </si>
+  <si>
+    <t>Gitlin, D.F.</t>
+  </si>
+  <si>
+    <t>Boston, USA</t>
+  </si>
+  <si>
+    <t>Psychiatric Population</t>
+  </si>
+  <si>
+    <t>Sakellaridis, T.</t>
+  </si>
+  <si>
+    <t>Single Centre</t>
+  </si>
+  <si>
+    <t>Athens, Greece</t>
+  </si>
+  <si>
+    <t>Islam, S.R.</t>
+  </si>
+  <si>
+    <t>Sobnach, S.</t>
+  </si>
+  <si>
+    <t>Trgo, G.</t>
+  </si>
+  <si>
+    <t>Department of Internal Medicine, Division of Gastroenterology, University Hospital Split</t>
+  </si>
+  <si>
+    <t>Split, Croatia</t>
+  </si>
+  <si>
+    <t>Tammana, V.S.</t>
+  </si>
+  <si>
+    <t>Howard University Hospital</t>
+  </si>
+  <si>
+    <t>Washington DC, USA</t>
+  </si>
+  <si>
+    <t>Astrid Lindgren Children’s Hospital</t>
+  </si>
+  <si>
+    <t>Naji, H.</t>
+  </si>
+  <si>
+    <t>Hyung Lee, J.</t>
+  </si>
+  <si>
+    <t>Stockholm, Sweden</t>
+  </si>
+  <si>
+    <t>Kyung Hee University Hospital at Gangdong, School of Medicine, Kyung Hee University</t>
+  </si>
+  <si>
+    <t>Seoul, South Korea</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>DiPoce, J.</t>
+  </si>
+  <si>
+    <t>Staten Island University Hospital</t>
+  </si>
+  <si>
+    <t>Yu, H.</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Tanrikulu, Y.</t>
+  </si>
+  <si>
+    <t>Emergency Department</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Surgicla Outpatient Department</t>
+  </si>
+  <si>
+    <t>Kamataka, India</t>
+  </si>
+  <si>
+    <t>Wadhwa, C.</t>
+  </si>
+  <si>
+    <t>10.4103/0976-5042.159247</t>
+  </si>
+  <si>
+    <t>Poznan, Poland</t>
+  </si>
+  <si>
+    <t>Department of General and Colorectal Surgery</t>
+  </si>
+  <si>
+    <t>Wnek, B.</t>
+  </si>
+  <si>
+    <t>10.1055/s-0035-1569668</t>
+  </si>
+  <si>
+    <t>Izmir, Turkey</t>
+  </si>
+  <si>
+    <t>Seval, A.</t>
+  </si>
+  <si>
+    <t>Izmir Tepecik Education and Research Hospital</t>
+  </si>
+  <si>
+    <t>Department of Surgery, University Hospital</t>
+  </si>
+  <si>
+    <t>Milton Keynes, UK</t>
+  </si>
+  <si>
+    <t>Dunphy, L.</t>
+  </si>
+  <si>
+    <t>10.1136/bcr-2014-208922</t>
+  </si>
+  <si>
+    <t>Yildiz, I.</t>
+  </si>
+  <si>
+    <t>10.1155/2016/8075432</t>
+  </si>
+  <si>
+    <t>Department of General Surgery, Suleyman Demirel University School of Medicine</t>
+  </si>
+  <si>
+    <t>Isparta, Turkey</t>
+  </si>
+  <si>
+    <t>Retrospective Case Series</t>
+  </si>
+  <si>
+    <t>10.4103/2455‑5568.188730</t>
+  </si>
+  <si>
+    <t>Peixoto, A.</t>
+  </si>
+  <si>
+    <t>Gastroenterology Department, Centro Hospitalar de São João, and †Oporto WGO Training Center, Porto Medical School</t>
+  </si>
+  <si>
+    <t>Porto, Portugal</t>
+  </si>
+  <si>
+    <t>10.1111/jgh.13828</t>
+  </si>
+  <si>
+    <t>Senussi, N.</t>
+  </si>
+  <si>
+    <t>Cleveland, OH, USA</t>
+  </si>
+  <si>
+    <t>Digestive Disease and Surgery Institute, Cleveland Clinic, Cleveland, Ohio</t>
+  </si>
+  <si>
+    <t>Chahine, E.</t>
+  </si>
+  <si>
+    <t>10.1136/bcr-2017-221928</t>
+  </si>
+  <si>
+    <t>Poissy, France</t>
+  </si>
+  <si>
+    <t>Digestive and Minimally Invasive surgery, Centre Hospitalier Intercommunal de poissy/saintGermain-en-Laye</t>
+  </si>
+  <si>
+    <t>Division of General Surgery, Department of Surgery, Kaohsiung Armed Forces General Hospital</t>
+  </si>
+  <si>
+    <t>Kaohsiung, Taiwan</t>
+  </si>
+  <si>
+    <t>Chang, W. J.</t>
+  </si>
+  <si>
+    <t>10.1002/ccr3.957</t>
+  </si>
+  <si>
+    <t>Department of General Surgery, aneurin Bevan University Health Board</t>
+  </si>
+  <si>
+    <t>Newport, UK</t>
+  </si>
+  <si>
+    <t>10.1136/bcr-2017223182</t>
+  </si>
+  <si>
+    <t>Gardner, A.W.</t>
+  </si>
+  <si>
+    <t>Deliberate Ingestion Of Foreign Bodies As A Form Of Self-Harm Among Inpatients Within Forensic Mental Health And Intellectual Disability Services</t>
+  </si>
+  <si>
+    <t>Ingestion Of Huge Number Of Metallic Nails Impacted In The Stomach And Cecum In A Mentally Abnormal Woman: Case Report</t>
+  </si>
+  <si>
+    <t>Surgical Management Of An Intentionally Ingested Vape Device Chronically Impacted Within The Duodenum Of An Adult Male</t>
+  </si>
+  <si>
+    <t>Endoscopic Failure For Foreign Body Ingestion And Food Bolus Impaction In The Upper Gastrointestinal Tract: An Updated Analysis In A European Tertiary Care  Hospital</t>
+  </si>
+  <si>
+    <t>Loose Screws: Removal Of Foreign Bodies From The Lower Gastrointestinal Tract</t>
+  </si>
+  <si>
+    <t>This Is A Successful Removal Of More Than 450 Pieces Of Metal Objects From A Patient'S Stomach: A Case Report</t>
+  </si>
+  <si>
+    <t>Retrospective Chart Review</t>
+  </si>
+  <si>
+    <t>Galdino Riva, C.</t>
+  </si>
+  <si>
+    <t>Cui, J.</t>
+  </si>
+  <si>
+    <t>Tromans, S.</t>
+  </si>
+  <si>
+    <t>Thapa, N.</t>
+  </si>
+  <si>
+    <t>Department of General Practice and Emergency Medicine, Karnali Academy of Health Sciences</t>
+  </si>
+  <si>
+    <t>Jumla, Nepal</t>
+  </si>
+  <si>
+    <t>General Surgical Department, Caboolture Hospital,</t>
+  </si>
+  <si>
+    <t>Caboolture, QLD, Australia</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijscr.2018.03.018</t>
+  </si>
+  <si>
+    <t>Kumar, R.</t>
+  </si>
+  <si>
+    <t>Department of Surgery, SLBS Medical College</t>
+  </si>
+  <si>
+    <t>Mandi, HP, India</t>
+  </si>
+  <si>
+    <t>10.1007/s11739-019-02183-4</t>
+  </si>
+  <si>
+    <t>Jehangir, M.</t>
+  </si>
+  <si>
+    <t>Harborview Medical Center, University of Washington,</t>
+  </si>
+  <si>
+    <t>Seattle, WA, USA</t>
+  </si>
+  <si>
+    <t>10.1007/s10140-018-01664-x</t>
+  </si>
+  <si>
+    <t>Benoist, L.B.L.</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6759A01A-4FB2-4345-9089-7E4839849A4B}">
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1402,19 +1666,19 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
@@ -1425,31 +1689,31 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>1886</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1457,39 +1721,42 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>1993</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>46</v>
       </c>
+      <c r="C4">
+        <v>1996</v>
+      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1497,7 +1764,7 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C5">
         <v>1996</v>
@@ -1506,19 +1773,19 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1526,7 +1793,7 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C6">
         <v>1997</v>
@@ -1535,19 +1802,19 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1555,7 +1822,7 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>1998</v>
@@ -1564,19 +1831,19 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1584,7 +1851,7 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C8">
         <v>1998</v>
@@ -1593,16 +1860,16 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1610,7 +1877,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C9">
         <v>2004</v>
@@ -1619,19 +1886,19 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1639,7 +1906,7 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C10">
         <v>2006</v>
@@ -1648,1185 +1915,1789 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>99</v>
       </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11">
+        <v>2007</v>
+      </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>101</v>
       </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>2007</v>
+      </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
+      <c r="G12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" t="s">
+        <v>152</v>
+      </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>103</v>
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13">
+        <v>2008</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" t="s">
+        <v>156</v>
+      </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>113</v>
+        <v>131</v>
+      </c>
+      <c r="C14">
+        <v>2009</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
+      <c r="G14" t="s">
+        <v>171</v>
+      </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>117</v>
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15">
+        <v>2010</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="C16">
+        <v>2010</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
+      <c r="G16" t="s">
+        <v>171</v>
+      </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>131</v>
+        <v>148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17">
+        <v>2011</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
       </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>138</v>
+        <v>149</v>
+      </c>
+      <c r="C18">
+        <v>2011</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
+      <c r="G18" t="s">
+        <v>171</v>
+      </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>139</v>
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19">
+        <v>2012</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
+      <c r="G19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
       <c r="K19" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>148</v>
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20">
+        <v>2012</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
       </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>149</v>
+        <v>172</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21">
+        <v>2011</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
+      <c r="G21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>161</v>
+        <v>175</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22">
+        <v>2012</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
       </c>
+      <c r="G22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
       <c r="K22" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>168</v>
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23">
+        <v>2012</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
       </c>
+      <c r="G23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" t="s">
+        <v>146</v>
+      </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>171</v>
+        <v>192</v>
+      </c>
+      <c r="C24">
+        <v>2013</v>
       </c>
       <c r="F24" t="s">
         <v>32</v>
       </c>
+      <c r="G24" t="s">
+        <v>171</v>
+      </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>172</v>
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>2014</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
       </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>175</v>
+        <v>214</v>
+      </c>
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26">
+        <v>2015</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" t="s">
+        <v>178</v>
+      </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>182</v>
+        <v>217</v>
+      </c>
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27">
+        <v>2015</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
       </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" t="s">
+        <v>182</v>
+      </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>183</v>
+        <v>219</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28">
+        <v>2015</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
       </c>
+      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>187</v>
+        <v>226</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29">
+        <v>2015</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
       </c>
+      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>186</v>
+      </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>188</v>
+        <v>231</v>
+      </c>
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30">
+        <v>2015</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
       </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" t="s">
+        <v>193</v>
+      </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>192</v>
+        <v>238</v>
+      </c>
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31">
+        <v>2016</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
       </c>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" t="s">
+        <v>195</v>
+      </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>195</v>
+        <v>244</v>
+      </c>
+      <c r="C32">
+        <v>2016</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
       </c>
+      <c r="G32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" t="s">
+        <v>199</v>
+      </c>
       <c r="K32" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>214</v>
+        <v>256</v>
+      </c>
+      <c r="C33">
+        <v>2016</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
       </c>
+      <c r="G33" t="s">
+        <v>171</v>
+      </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>217</v>
+        <v>260</v>
+      </c>
+      <c r="B34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34">
+        <v>2017</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
       </c>
+      <c r="G34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" t="s">
+        <v>203</v>
+      </c>
       <c r="K34" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>219</v>
+        <v>261</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35">
+        <v>2017</v>
       </c>
       <c r="F35" t="s">
         <v>43</v>
       </c>
+      <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" t="s">
+        <v>205</v>
+      </c>
       <c r="K35" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>226</v>
+        <v>263</v>
+      </c>
+      <c r="C36">
+        <v>2017</v>
       </c>
       <c r="F36" t="s">
         <v>44</v>
       </c>
+      <c r="G36" t="s">
+        <v>171</v>
+      </c>
       <c r="K36" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>227</v>
+        <v>266</v>
+      </c>
+      <c r="C37">
+        <v>2017</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
       </c>
+      <c r="G37" t="s">
+        <v>171</v>
+      </c>
       <c r="K37" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>228</v>
+        <v>273</v>
+      </c>
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38">
+        <v>2017</v>
       </c>
       <c r="F38" t="s">
         <v>46</v>
       </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" t="s">
+        <v>209</v>
+      </c>
+      <c r="J38" t="s">
+        <v>208</v>
+      </c>
       <c r="K38" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>231</v>
+        <v>274</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39">
+        <v>2017</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
       </c>
+      <c r="G39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" t="s">
+        <v>211</v>
+      </c>
+      <c r="I39" t="s">
+        <v>212</v>
+      </c>
+      <c r="J39" t="s">
+        <v>214</v>
+      </c>
       <c r="K39" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>238</v>
+        <v>277</v>
+      </c>
+      <c r="C40">
+        <v>2017</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
+      <c r="G40" t="s">
+        <v>171</v>
+      </c>
       <c r="K40" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>244</v>
+        <v>278</v>
+      </c>
+      <c r="B41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41">
+        <v>2017</v>
       </c>
       <c r="F41" t="s">
         <v>49</v>
       </c>
+      <c r="G41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" t="s">
+        <v>217</v>
+      </c>
       <c r="K41" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>256</v>
+        <v>288</v>
+      </c>
+      <c r="C42">
+        <v>2018</v>
       </c>
       <c r="F42" t="s">
         <v>50</v>
       </c>
+      <c r="G42" t="s">
+        <v>225</v>
+      </c>
       <c r="K42" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>260</v>
+        <v>292</v>
+      </c>
+      <c r="B43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43">
+        <v>2018</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>
       </c>
+      <c r="G43" t="s">
+        <v>122</v>
+      </c>
       <c r="K43" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>261</v>
+        <v>293</v>
+      </c>
+      <c r="C44">
+        <v>2018</v>
       </c>
       <c r="F44" t="s">
         <v>52</v>
       </c>
       <c r="K44" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>263</v>
+        <v>300</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45">
+        <v>2018</v>
       </c>
       <c r="F45" t="s">
         <v>53</v>
       </c>
+      <c r="G45" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" t="s">
+        <v>233</v>
+      </c>
+      <c r="J45" t="s">
+        <v>234</v>
+      </c>
       <c r="K45" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>264</v>
+        <v>307</v>
+      </c>
+      <c r="C46">
+        <v>2019</v>
       </c>
       <c r="F46" t="s">
         <v>54</v>
       </c>
+      <c r="G46" t="s">
+        <v>225</v>
+      </c>
       <c r="K46" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>266</v>
+        <v>311</v>
+      </c>
+      <c r="B47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47">
+        <v>2019</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
       </c>
+      <c r="G47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I47" t="s">
+        <v>231</v>
+      </c>
       <c r="K47" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>268</v>
+        <v>312</v>
+      </c>
+      <c r="B48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48">
+        <v>2019</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>219</v>
+      </c>
+      <c r="G48" t="s">
+        <v>225</v>
       </c>
       <c r="K48" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>273</v>
+        <v>314</v>
+      </c>
+      <c r="B49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49">
+        <v>2019</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I49" t="s">
+        <v>237</v>
+      </c>
+      <c r="J49" t="s">
+        <v>238</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>274</v>
+        <v>319</v>
+      </c>
+      <c r="B50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50">
+        <v>2019</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" t="s">
+        <v>240</v>
+      </c>
+      <c r="I50" t="s">
+        <v>241</v>
+      </c>
+      <c r="J50" t="s">
+        <v>242</v>
       </c>
       <c r="K50" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>277</v>
+        <v>321</v>
+      </c>
+      <c r="C51">
+        <v>2019</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>278</v>
+        <v>322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52">
+        <v>2019</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K52" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>288</v>
+        <v>327</v>
+      </c>
+      <c r="C53">
+        <v>2019</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K53" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>292</v>
+        <v>328</v>
+      </c>
+      <c r="C54">
+        <v>2019</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K54" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>293</v>
+        <v>333</v>
+      </c>
+      <c r="C55">
+        <v>2020</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="K55" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>296</v>
+        <v>336</v>
+      </c>
+      <c r="C56">
+        <v>2020</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K56" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>300</v>
+        <v>342</v>
+      </c>
+      <c r="C57">
+        <v>2020</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K57" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>307</v>
+        <v>344</v>
+      </c>
+      <c r="C58">
+        <v>2020</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K58" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>311</v>
+        <v>345</v>
+      </c>
+      <c r="C59">
+        <v>2020</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K59" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>314</v>
+        <v>346</v>
+      </c>
+      <c r="C60">
+        <v>2020</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K60" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>315</v>
+        <v>348</v>
+      </c>
+      <c r="C61">
+        <v>2020</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K61" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>319</v>
+        <v>349</v>
+      </c>
+      <c r="C62">
+        <v>2020</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K62" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>321</v>
+        <v>353</v>
+      </c>
+      <c r="C63">
+        <v>2020</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K63" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>322</v>
+        <v>354</v>
+      </c>
+      <c r="C64">
+        <v>2020</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K64" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>327</v>
+        <v>356</v>
+      </c>
+      <c r="C65">
+        <v>2020</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K65" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>328</v>
+        <v>359</v>
+      </c>
+      <c r="C66">
+        <v>2020</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>336</v>
+        <v>360</v>
+      </c>
+      <c r="C67">
+        <v>2020</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K67" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>342</v>
+        <v>369</v>
+      </c>
+      <c r="C68">
+        <v>2021</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K68" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>344</v>
+        <v>370</v>
+      </c>
+      <c r="C69">
+        <v>2021</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>345</v>
+        <v>373</v>
+      </c>
+      <c r="C70">
+        <v>2021</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>346</v>
+        <v>375</v>
+      </c>
+      <c r="C71">
+        <v>2021</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>348</v>
+        <v>377</v>
+      </c>
+      <c r="C72">
+        <v>2021</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>349</v>
+        <v>380</v>
+      </c>
+      <c r="C73">
+        <v>2021</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>353</v>
+        <v>382</v>
+      </c>
+      <c r="C74">
+        <v>2021</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>354</v>
+        <v>384</v>
+      </c>
+      <c r="C75">
+        <v>2021</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K75" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>356</v>
+        <v>386</v>
+      </c>
+      <c r="C76">
+        <v>2021</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>359</v>
+        <v>399</v>
+      </c>
+      <c r="C77">
+        <v>2022</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K77" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>360</v>
+        <v>401</v>
+      </c>
+      <c r="C78">
+        <v>2022</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K78" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>369</v>
+        <v>402</v>
+      </c>
+      <c r="C79">
+        <v>2022</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>370</v>
+        <v>405</v>
+      </c>
+      <c r="C80">
+        <v>2022</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>373</v>
+        <v>406</v>
+      </c>
+      <c r="C81">
+        <v>2022</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>375</v>
+        <v>409</v>
+      </c>
+      <c r="C82">
+        <v>2022</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>377</v>
+        <v>414</v>
+      </c>
+      <c r="C83">
+        <v>2022</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>380</v>
+        <v>416</v>
+      </c>
+      <c r="C84">
+        <v>2022</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>382</v>
+        <v>421</v>
+      </c>
+      <c r="C85">
+        <v>2022</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>384</v>
+        <v>428</v>
+      </c>
+      <c r="C86">
+        <v>2023</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>386</v>
+        <v>429</v>
+      </c>
+      <c r="C87">
+        <v>2023</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K87" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>399</v>
+        <v>431</v>
+      </c>
+      <c r="C88">
+        <v>2023</v>
       </c>
       <c r="F88" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="K88" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>401</v>
+        <v>432</v>
+      </c>
+      <c r="C89">
+        <v>2023</v>
       </c>
       <c r="F89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>402</v>
+        <v>439</v>
+      </c>
+      <c r="C90">
+        <v>2023</v>
       </c>
       <c r="F90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K90" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>405</v>
+        <v>441</v>
+      </c>
+      <c r="C91">
+        <v>2023</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>406</v>
+        <v>442</v>
+      </c>
+      <c r="C92">
+        <v>2023</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K92" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>409</v>
+        <v>443</v>
+      </c>
+      <c r="C93">
+        <v>2023</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>414</v>
+        <v>444</v>
+      </c>
+      <c r="C94">
+        <v>2023</v>
       </c>
       <c r="F94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K94" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>416</v>
+        <v>445</v>
+      </c>
+      <c r="C95">
+        <v>2023</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K95" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>421</v>
+        <v>447</v>
+      </c>
+      <c r="C96">
+        <v>2023</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K96" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>428</v>
+        <v>450</v>
+      </c>
+      <c r="C97">
+        <v>2023</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="K97" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>429</v>
+        <v>451</v>
+      </c>
+      <c r="C98">
+        <v>2023</v>
       </c>
       <c r="F98" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K98" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>432</v>
+        <v>456</v>
+      </c>
+      <c r="C99">
+        <v>2023</v>
       </c>
       <c r="F99" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="K99" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>439</v>
+        <v>460</v>
+      </c>
+      <c r="C100">
+        <v>2023</v>
       </c>
       <c r="F100" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>441</v>
+        <v>461</v>
+      </c>
+      <c r="C101">
+        <v>2023</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K101" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>442</v>
+        <v>465</v>
+      </c>
+      <c r="C102">
+        <v>2024</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K102" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>443</v>
+        <v>471</v>
+      </c>
+      <c r="C103">
+        <v>2024</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K103" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>444</v>
+        <v>475</v>
+      </c>
+      <c r="C104">
+        <v>2024</v>
       </c>
       <c r="F104" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K104" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>445</v>
+        <v>476</v>
+      </c>
+      <c r="C105">
+        <v>2024</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K105" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>447</v>
+        <v>482</v>
+      </c>
+      <c r="C106">
+        <v>2024</v>
       </c>
       <c r="F106" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="K106" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>451</v>
+        <v>483</v>
+      </c>
+      <c r="C107">
+        <v>2024</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K107" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>460</v>
+        <v>484</v>
+      </c>
+      <c r="C108">
+        <v>2024</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K108" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>461</v>
+        <v>485</v>
+      </c>
+      <c r="C109">
+        <v>2024</v>
       </c>
       <c r="F109" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>465</v>
-      </c>
-      <c r="F110" t="s">
-        <v>118</v>
-      </c>
-      <c r="K110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>471</v>
-      </c>
-      <c r="F111" t="s">
-        <v>119</v>
-      </c>
-      <c r="K111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>475</v>
-      </c>
-      <c r="F112" t="s">
-        <v>120</v>
-      </c>
-      <c r="K112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>476</v>
-      </c>
-      <c r="F113" t="s">
-        <v>121</v>
-      </c>
-      <c r="K113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>483</v>
-      </c>
-      <c r="F114" t="s">
-        <v>122</v>
-      </c>
-      <c r="K114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>484</v>
-      </c>
-      <c r="F115" t="s">
-        <v>123</v>
-      </c>
-      <c r="K115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>485</v>
-      </c>
-      <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="K116" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
